--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/42/word_level_predictions_42.xlsx
@@ -5182,210 +5182,210 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" t="n">
         <v>4</v>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" t="n">
         <v>0</v>
       </c>
-      <c r="E92" s="2" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" t="n">
         <v>4</v>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>4</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>2</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>4</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>3</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10197,81 +10197,81 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>11</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>3</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E189" s="2" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15218,210 +15218,210 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="n">
+      <c r="A285" t="n">
         <v>16</v>
       </c>
-      <c r="B285" s="2" t="inlineStr">
+      <c r="B285" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C285" s="2" t="inlineStr">
+      <c r="C285" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D285" s="2" t="n">
+      <c r="D285" t="n">
         <v>3</v>
       </c>
-      <c r="E285" s="2" t="inlineStr">
+      <c r="E285" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F285" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G285" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I285" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K285" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L285" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G285" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I285" t="b">
+        <v>1</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K285" t="b">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="2" t="n">
+      <c r="A286" t="n">
         <v>16</v>
       </c>
-      <c r="B286" s="2" t="inlineStr">
+      <c r="B286" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C286" s="2" t="inlineStr">
+      <c r="C286" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D286" s="2" t="n">
+      <c r="D286" t="n">
         <v>4</v>
       </c>
-      <c r="E286" s="2" t="inlineStr">
+      <c r="E286" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F286" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G286" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I286" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K286" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L286" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G286" t="b">
+        <v>1</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I286" t="b">
+        <v>1</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K286" t="b">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="n">
+      <c r="A287" t="n">
         <v>16</v>
       </c>
-      <c r="B287" s="2" t="inlineStr">
+      <c r="B287" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C287" s="2" t="inlineStr">
+      <c r="C287" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D287" s="2" t="n">
+      <c r="D287" t="n">
         <v>5</v>
       </c>
-      <c r="E287" s="2" t="inlineStr">
+      <c r="E287" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F287" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G287" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K287" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L287" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G287" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" t="b">
+        <v>1</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K287" t="b">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="n">
+      <c r="A288" t="n">
         <v>16</v>
       </c>
-      <c r="B288" s="2" t="inlineStr">
+      <c r="B288" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C288" s="2" t="inlineStr">
+      <c r="C288" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D288" s="2" t="n">
+      <c r="D288" t="n">
         <v>6</v>
       </c>
-      <c r="E288" s="2" t="inlineStr">
+      <c r="E288" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F288" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L288" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G288" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" t="b">
+        <v>1</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K288" t="b">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/42/word_level_predictions_42.xlsx
@@ -5182,210 +5182,210 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K92" t="b">
-        <v>1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="D93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>2</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>4</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G188" t="b">
@@ -10221,57 +10221,57 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E189" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F189" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15218,210 +15218,210 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
+      <c r="A285" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B285" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
+      <c r="C285" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D285" t="n">
+      <c r="D285" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E285" t="inlineStr">
+      <c r="E285" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G285" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I285" t="b">
-        <v>1</v>
-      </c>
-      <c r="J285" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K285" t="b">
-        <v>1</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F285" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G285" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I285" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J285" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K285" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L285" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
+      <c r="A286" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="B286" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
+      <c r="C286" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D286" t="n">
+      <c r="D286" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E286" t="inlineStr">
+      <c r="E286" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
+      <c r="F286" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G286" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H286" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I286" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J286" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K286" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L286" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B287" s="2" t="inlineStr">
+        <is>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C287" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E287" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G286" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I286" t="b">
-        <v>1</v>
-      </c>
-      <c r="J286" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K286" t="b">
-        <v>1</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
+      <c r="F287" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J287" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K287" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L287" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="B288" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>5</v>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" t="b">
-        <v>1</v>
-      </c>
-      <c r="J287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K287" t="b">
-        <v>1</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>16</v>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
+      <c r="C288" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D288" t="n">
+      <c r="D288" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E288" t="inlineStr">
+      <c r="E288" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" t="b">
-        <v>1</v>
-      </c>
-      <c r="J288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K288" t="b">
-        <v>1</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F288" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J288" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L288" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
